--- a/Perhitungan.xlsx
+++ b/Perhitungan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399C6231-7ED5-4A36-8E36-02DB99C2F7C9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EAB1982-1AFC-4D29-A30A-2D38E9515ABE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,30 +380,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -770,10 +770,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="4:15">
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="D8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
@@ -951,10 +951,10 @@
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" s="3" t="s">
@@ -967,11 +967,11 @@
         <f t="shared" ref="F18:F30" si="0">(E18/$E$31)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="21">
         <f>(F18*G9)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="21"/>
       <c r="I18" t="s">
         <v>4</v>
       </c>
@@ -987,11 +987,11 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="21">
         <f>(F19*G10)</f>
         <v>-2.9411764705882353E-2</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="21"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
@@ -1007,11 +1007,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="21">
         <f>(F20*G11)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="21"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
@@ -1027,11 +1027,11 @@
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="21">
         <f>(F21*G12)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="21"/>
       <c r="I21" t="s">
         <v>8</v>
       </c>
@@ -1047,11 +1047,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="21">
         <f>(F22*G12)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="21"/>
       <c r="I22" t="s">
         <v>10</v>
       </c>
@@ -1067,11 +1067,11 @@
         <f t="shared" si="0"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="22">
         <f>F23*1</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="23"/>
       <c r="I23" t="s">
         <v>33</v>
       </c>
@@ -1087,11 +1087,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="22">
         <f t="shared" ref="G24:G30" si="1">F24*1</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="23"/>
       <c r="I24" t="s">
         <v>34</v>
       </c>
@@ -1107,11 +1107,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="22">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="23"/>
       <c r="I25" t="s">
         <v>35</v>
       </c>
@@ -1127,11 +1127,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="22">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="23"/>
       <c r="I26" t="s">
         <v>36</v>
       </c>
@@ -1147,11 +1147,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="22">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="23"/>
       <c r="I27" t="s">
         <v>37</v>
       </c>
@@ -1167,11 +1167,11 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="22">
         <f>F28*1</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="23"/>
       <c r="I28" t="s">
         <v>38</v>
       </c>
@@ -1187,11 +1187,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="22">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="23"/>
       <c r="I29" t="s">
         <v>39</v>
       </c>
@@ -1207,11 +1207,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="22">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="23"/>
       <c r="I30" t="s">
         <v>40</v>
       </c>
@@ -1235,19 +1235,19 @@
       </c>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="14"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1471,19 +1471,19 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="4:17">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="E44" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="4:17">
-      <c r="D45" s="14"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1757,55 +1757,55 @@
       <c r="E50" s="1"/>
     </row>
     <row r="52" spans="4:17">
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="10" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11" t="s">
+      <c r="K52" s="16"/>
+      <c r="L52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="10" t="s">
+      <c r="O52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="11" t="s">
+      <c r="P52" s="16"/>
+      <c r="Q52" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="4:17">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="14" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="12"/>
-      <c r="O53" s="14" t="s">
+      <c r="L53" s="11"/>
+      <c r="O53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="14" t="s">
+      <c r="P53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="12"/>
+      <c r="Q53" s="11"/>
     </row>
     <row r="54" spans="4:17">
-      <c r="D54" s="10"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1821,12 +1821,12 @@
       <c r="I54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="13"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="13"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="12"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="4:17">
       <c r="D55" s="2" t="s">
@@ -1860,9 +1860,12 @@
         <f>(J55/$J$59)</f>
         <v>0.34656164615910373</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="13">
         <f>MAX(K55:K57)</f>
         <v>0.38136965126321654</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
       </c>
       <c r="O55" s="6">
         <f>E46*F46*G46*H46*I46*J46*K46*L46*M46*N46*O46*P46*Q46</f>
@@ -1872,7 +1875,7 @@
         <f>O55/O59</f>
         <v>0.19332695223357704</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="13">
         <f>MAX(P55:P58)</f>
         <v>0.35361164794916272</v>
       </c>
@@ -1909,7 +1912,10 @@
         <f>(J56/$J$59)</f>
         <v>0.27206870257767968</v>
       </c>
-      <c r="L56" s="16"/>
+      <c r="L56" s="14"/>
+      <c r="N56">
+        <v>2</v>
+      </c>
       <c r="O56" s="6">
         <f t="shared" ref="O56:O58" si="12">E47*F47*G47*H47*I47*J47*K47*L47*M47*N47*O47*P47*Q47</f>
         <v>3.1210304074475959</v>
@@ -1918,7 +1924,7 @@
         <f>O56/O59</f>
         <v>0.15663436044771598</v>
       </c>
-      <c r="Q56" s="16"/>
+      <c r="Q56" s="14"/>
     </row>
     <row r="57" spans="4:17">
       <c r="D57" s="2" t="s">
@@ -1952,7 +1958,10 @@
         <f>(J57/$J$59)</f>
         <v>0.38136965126321654</v>
       </c>
-      <c r="L57" s="16"/>
+      <c r="L57" s="14"/>
+      <c r="N57">
+        <v>3</v>
+      </c>
       <c r="O57" s="6">
         <f t="shared" si="12"/>
         <v>5.9064805501014463</v>
@@ -1961,7 +1970,7 @@
         <f>O57/O59</f>
         <v>0.2964270393695444</v>
       </c>
-      <c r="Q57" s="16"/>
+      <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="4:17">
       <c r="D58" s="4"/>
@@ -1972,7 +1981,10 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="17"/>
+      <c r="L58" s="15"/>
+      <c r="N58">
+        <v>4</v>
+      </c>
       <c r="O58" s="6">
         <f t="shared" si="12"/>
         <v>7.0459170166904723</v>
@@ -1981,17 +1993,17 @@
         <f>O58/O59</f>
         <v>0.35361164794916272</v>
       </c>
-      <c r="Q58" s="17"/>
+      <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="4:17">
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
       <c r="J59" s="6">
         <f>SUM(J55:J57)</f>
         <v>6.0629456108620143</v>
@@ -2007,13 +2019,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="E35:I35"/>
@@ -2026,20 +2041,17 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:I44"/>
-    <mergeCell ref="K53:K54"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Perhitungan.xlsx
+++ b/Perhitungan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EAB1982-1AFC-4D29-A30A-2D38E9515ABE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF634794-9891-4864-94F3-0C15A8CA71FE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>Menentukan Kriteria dan Bobot</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Perpankatan Rating dengan Bobot</t>
-  </si>
-  <si>
-    <t>Perpangkatan</t>
   </si>
   <si>
     <t>VEKTOR</t>
@@ -250,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,17 +274,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -353,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,13 +366,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,32 +390,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,6 +420,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -701,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:Q59"/>
+  <dimension ref="D5:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -738,10 +722,10 @@
     </row>
     <row r="6" spans="4:15">
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -756,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>9</v>
@@ -770,10 +754,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="4:15">
-      <c r="D8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20"/>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
@@ -782,10 +766,10 @@
       </c>
       <c r="H8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>9</v>
@@ -800,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
@@ -810,10 +794,10 @@
       </c>
       <c r="H9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>9</v>
@@ -828,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
@@ -838,10 +822,10 @@
       </c>
       <c r="H10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>9</v>
@@ -856,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>9</v>
@@ -866,10 +850,10 @@
       </c>
       <c r="H11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>9</v>
@@ -884,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -894,10 +878,10 @@
       </c>
       <c r="H12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>9</v>
@@ -912,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
@@ -922,10 +906,10 @@
       </c>
       <c r="H13" s="4"/>
       <c r="K13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>9</v>
@@ -951,10 +935,10 @@
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" s="3" t="s">
@@ -967,11 +951,11 @@
         <f t="shared" ref="F18:F30" si="0">(E18/$E$31)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <f>(F18*G9)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="18"/>
       <c r="I18" t="s">
         <v>4</v>
       </c>
@@ -987,11 +971,11 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f>(F19*G10)</f>
         <v>-2.9411764705882353E-2</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="18"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
@@ -1007,11 +991,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <f>(F20*G11)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="18"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
@@ -1027,11 +1011,11 @@
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <f>(F21*G12)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="18"/>
       <c r="I21" t="s">
         <v>8</v>
       </c>
@@ -1047,18 +1031,18 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <f>(F22*G12)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="18"/>
       <c r="I22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="4:9">
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5">
         <v>5</v>
@@ -1067,18 +1051,18 @@
         <f t="shared" si="0"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <f>F23*1</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="20"/>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="4:9">
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -1087,18 +1071,18 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="19">
         <f t="shared" ref="G24:G30" si="1">F24*1</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="20"/>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:9">
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="5">
         <v>3</v>
@@ -1107,18 +1091,18 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="19">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="20"/>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="4:9">
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="5">
         <v>2</v>
@@ -1127,18 +1111,18 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="20"/>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="4:9">
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="5">
         <v>3</v>
@@ -1147,18 +1131,18 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="19">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="20"/>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:9">
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1167,18 +1151,18 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="19">
         <f>F28*1</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="20"/>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="4:9">
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -1187,18 +1171,18 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="19">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="20"/>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="4:9">
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5">
         <v>3</v>
@@ -1207,13 +1191,13 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="19">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="20"/>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="4:9">
@@ -1235,19 +1219,19 @@
       </c>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="E35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="20"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1264,28 +1248,28 @@
         <v>10</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="4:17">
@@ -1422,7 +1406,7 @@
     </row>
     <row r="40" spans="4:17">
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="8">
         <v>37</v>
@@ -1471,19 +1455,19 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="4:17">
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="E44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="4:17">
-      <c r="D45" s="20"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1500,28 +1484,28 @@
         <v>10</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="46" spans="4:17">
@@ -1697,7 +1681,7 @@
     </row>
     <row r="49" spans="4:17">
       <c r="D49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="9">
         <f>E40^0.09</f>
@@ -1756,114 +1740,77 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
+    <row r="51" spans="4:17">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+    </row>
     <row r="52" spans="4:17">
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="O52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="16" t="s">
+      <c r="P52" s="10"/>
+      <c r="Q52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="10" t="s">
+    </row>
+    <row r="53" spans="4:17">
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="O53" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="4:17">
-      <c r="D53" s="16"/>
-      <c r="E53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="20" t="s">
+      <c r="P53" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="O53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="11"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" spans="4:17">
-      <c r="D54" s="16"/>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="12"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="12"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="13"/>
     </row>
     <row r="55" spans="4:17">
-      <c r="D55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="6">
-        <f>(E37^$G$18)</f>
-        <v>1.3614024383224845</v>
-      </c>
-      <c r="F55" s="6">
-        <f>(F37^$G$19)</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <f>(G37^$G$20)</f>
-        <v>1.1301157834293298</v>
-      </c>
-      <c r="H55" s="6">
-        <f>(H37^$G$21)</f>
-        <v>1.2084585680074647</v>
-      </c>
-      <c r="I55" s="6">
-        <f>(I37^$G$30)</f>
-        <v>1.1301157834293298</v>
-      </c>
-      <c r="J55" s="6">
-        <f>(E55*F55*G55*H55*I55)</f>
-        <v>2.1011844114734526</v>
-      </c>
-      <c r="K55" s="7">
-        <f>(J55/$J$59)</f>
-        <v>0.34656164615910373</v>
-      </c>
-      <c r="L55" s="13">
-        <f>MAX(K55:K57)</f>
-        <v>0.38136965126321654</v>
-      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
       <c r="N55">
         <v>1</v>
       </c>
@@ -1875,44 +1822,21 @@
         <f>O55/O59</f>
         <v>0.19332695223357704</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="15">
         <f>MAX(P55:P58)</f>
         <v>0.35361164794916272</v>
       </c>
     </row>
     <row r="56" spans="4:17">
-      <c r="D56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="6">
-        <f>(E38^$G$18)</f>
-        <v>1.284011822411333</v>
-      </c>
-      <c r="F56" s="6">
-        <f>(F38^$G$19)</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <f>(G38^$G$20)</f>
-        <v>1</v>
-      </c>
-      <c r="H56" s="6">
-        <f>(H38^$G$21)</f>
-        <v>1.2084585680074647</v>
-      </c>
-      <c r="I56" s="6">
-        <f>(I38^$G$30)</f>
-        <v>1.063069039822593</v>
-      </c>
-      <c r="J56" s="6">
-        <f>(E56*F56*G56*H56*I56)</f>
-        <v>1.6495377461462659</v>
-      </c>
-      <c r="K56" s="7">
-        <f>(J56/$J$59)</f>
-        <v>0.27206870257767968</v>
-      </c>
-      <c r="L56" s="14"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
       <c r="N56">
         <v>2</v>
       </c>
@@ -1924,41 +1848,18 @@
         <f>O56/O59</f>
         <v>0.15663436044771598</v>
       </c>
-      <c r="Q56" s="14"/>
+      <c r="Q56" s="16"/>
     </row>
     <row r="57" spans="4:17">
-      <c r="D57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="6">
-        <f>(E39^$G$18)</f>
-        <v>1.3684889595305523</v>
-      </c>
-      <c r="F57" s="6">
-        <f>(F39^$G$19)</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="6">
-        <f>(G39^$G$20)</f>
-        <v>1.1525872840651457</v>
-      </c>
-      <c r="H57" s="6">
-        <f>(H39^$G$21)</f>
-        <v>1.2346595100137665</v>
-      </c>
-      <c r="I57" s="6">
-        <f>(I39^$G$30)</f>
-        <v>1.1873191544365533</v>
-      </c>
-      <c r="J57" s="6">
-        <f>(E57*F57*G57*H57*I57)</f>
-        <v>2.3122234532422956</v>
-      </c>
-      <c r="K57" s="7">
-        <f>(J57/$J$59)</f>
-        <v>0.38136965126321654</v>
-      </c>
-      <c r="L57" s="14"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
       <c r="N57">
         <v>3</v>
       </c>
@@ -1970,18 +1871,18 @@
         <f>O57/O59</f>
         <v>0.2964270393695444</v>
       </c>
-      <c r="Q57" s="14"/>
+      <c r="Q57" s="16"/>
     </row>
     <row r="58" spans="4:17">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="15"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
       <c r="N58">
         <v>4</v>
       </c>
@@ -1993,23 +1894,18 @@
         <f>O58/O59</f>
         <v>0.35361164794916272</v>
       </c>
-      <c r="Q58" s="15"/>
+      <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="4:17">
-      <c r="D59" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="6">
-        <f>SUM(J55:J57)</f>
-        <v>6.0629456108620143</v>
-      </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="4"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
       <c r="O59" s="6">
         <f>SUM(O55:O58)</f>
         <v>19.92557953776295</v>
@@ -2017,23 +1913,34 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="4"/>
     </row>
+    <row r="60" spans="4:17">
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="4:17">
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+  <mergeCells count="24">
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="E35:I35"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:K52"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
@@ -2044,14 +1951,16 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Perhitungan.xlsx
+++ b/Perhitungan.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF634794-9891-4864-94F3-0C15A8CA71FE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413FEE11-381B-4606-97E9-C7DB258F077C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dinamis" sheetId="1" r:id="rId1"/>
+    <sheet name="Static" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
   <si>
     <t>Menentukan Kriteria dan Bobot</t>
   </si>
@@ -206,6 +207,21 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>Merk</t>
+  </si>
+  <si>
+    <t>Kurius</t>
+  </si>
+  <si>
+    <t>plut</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Plut</t>
   </si>
 </sst>
 </file>
@@ -247,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -333,13 +349,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +391,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,9 +415,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,16 +424,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,6 +452,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -685,99 +717,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:Q61"/>
+  <dimension ref="D4:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" customWidth="1"/>
-    <col min="14" max="15" width="13.77734375"/>
-    <col min="16" max="16" width="12.6640625"/>
-    <col min="17" max="17" width="13.77734375"/>
-    <col min="18" max="20" width="12.6640625"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375"/>
+    <col min="16" max="16" width="12.7109375"/>
+    <col min="17" max="17" width="13.7109375"/>
+    <col min="18" max="20" width="12.7109375"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:15">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
     <row r="5" spans="4:15">
-      <c r="K5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="4:15">
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="4:15">
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="4:15">
       <c r="D9" s="3" t="s">
@@ -792,20 +809,13 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="4:15">
       <c r="D10" s="3" t="s">
@@ -820,20 +830,13 @@
       <c r="G10" s="2">
         <v>-1</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="K10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="4:15">
       <c r="D11" s="3" t="s">
@@ -848,20 +851,13 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="K11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4"/>
+      <c r="H11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="4:15">
       <c r="D12" s="3" t="s">
@@ -876,20 +872,13 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="K12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="4:15">
       <c r="D13" s="3" t="s">
@@ -904,28 +893,69 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="K13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="H13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="4:15">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="4:9">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="4:17">
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
@@ -935,12 +965,18 @@
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="4:9">
+      <c r="H17" s="10"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="4:17">
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
@@ -948,19 +984,25 @@
         <v>3</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F30" si="0">(E18/$E$31)</f>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="G18" s="18">
+        <f t="shared" ref="F18:F24" si="0">(E18/$E$31)</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G18" s="11">
         <f>(F18*G9)</f>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="4:9">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="4:17">
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
@@ -969,18 +1011,24 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="G19" s="18">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G19" s="11">
         <f>(F19*G10)</f>
-        <v>-2.9411764705882353E-2</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="4:9">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="4:17">
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
@@ -989,18 +1037,18 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="G20" s="18">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G20" s="11">
         <f>(F20*G11)</f>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="H20" s="18"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:17">
       <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1009,229 +1057,148 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G21" s="18">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G21" s="11">
         <f>(F21*G12)</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="H21" s="18"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="4:17">
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G22" s="18">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G22" s="11">
         <f>(F22*G12)</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H22" s="18"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:9">
+    <row r="23" spans="4:17">
       <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="G23" s="19">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G23" s="12">
         <f>F23*1</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="H23" s="20"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="4:9">
+    <row r="24" spans="4:17">
       <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" ref="G24:G30" si="1">F24*1</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H24" s="20"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" ref="G24" si="1">F24*1</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H24" s="13"/>
       <c r="I24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="4:9">
-      <c r="D25" s="3" t="s">
-        <v>55</v>
+    <row r="25" spans="4:17">
+      <c r="D25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="5">
-        <v>3</v>
+        <f>SUM(E18:E24)</f>
+        <v>22</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="G25" s="19">
-        <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9">
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G26" s="19">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9">
-      <c r="D27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9">
-      <c r="D28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="G28" s="19">
-        <f>F28*1</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9">
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9">
-      <c r="D30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9">
-      <c r="D31" s="4" t="s">
-        <v>21</v>
-      </c>
+        <f>SUM(F18:F24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17">
+      <c r="D31" s="4"/>
       <c r="E31" s="5">
-        <f>SUM(E18:E30)</f>
-        <v>34</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F18:F30)</f>
-        <v>1</v>
-      </c>
+        <f>SUM(E18:E24)</f>
+        <v>22</v>
+      </c>
+      <c r="F31" s="6">
+        <f>SUM(F18:F24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="4:17">
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="4:17">
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="14"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1253,28 +1220,16 @@
       <c r="K36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="4:17">
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E37" s="8">
         <v>33</v>
@@ -1297,28 +1252,16 @@
       <c r="K37" s="8">
         <v>2</v>
       </c>
-      <c r="L37" s="8">
-        <v>4</v>
-      </c>
-      <c r="M37" s="8">
-        <v>3</v>
-      </c>
-      <c r="N37" s="8">
-        <v>2</v>
-      </c>
-      <c r="O37" s="8">
-        <v>3</v>
-      </c>
-      <c r="P37" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>3</v>
-      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="4:17">
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E38" s="8">
         <v>17</v>
@@ -1341,28 +1284,16 @@
       <c r="K38" s="8">
         <v>2</v>
       </c>
-      <c r="L38" s="8">
-        <v>3</v>
-      </c>
-      <c r="M38" s="8">
-        <v>1</v>
-      </c>
-      <c r="N38" s="8">
-        <v>7</v>
-      </c>
-      <c r="O38" s="8">
-        <v>6</v>
-      </c>
-      <c r="P38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>7</v>
-      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="4:17">
       <c r="D39" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E39" s="8">
         <v>35</v>
@@ -1385,28 +1316,16 @@
       <c r="K39" s="8">
         <v>4</v>
       </c>
-      <c r="L39" s="8">
-        <v>8</v>
-      </c>
-      <c r="M39" s="8">
-        <v>8</v>
-      </c>
-      <c r="N39" s="8">
-        <v>9</v>
-      </c>
-      <c r="O39" s="8">
-        <v>1</v>
-      </c>
-      <c r="P39" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>7</v>
-      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="40" spans="4:17">
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E40" s="8">
         <v>37</v>
@@ -1429,45 +1348,61 @@
       <c r="K40" s="8">
         <v>7</v>
       </c>
-      <c r="L40" s="8">
-        <v>8</v>
-      </c>
-      <c r="M40" s="8">
-        <v>4</v>
-      </c>
-      <c r="N40" s="8">
-        <v>3</v>
-      </c>
-      <c r="O40" s="8">
-        <v>4</v>
-      </c>
-      <c r="P40" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="8">
-        <v>7</v>
-      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="4:17">
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
     </row>
     <row r="43" spans="4:17">
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
     </row>
     <row r="44" spans="4:17">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="E44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="4:17">
-      <c r="D45" s="14"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1489,481 +1424,1466 @@
       <c r="K45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="4:17">
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E46" s="9">
-        <f>E37^0.09</f>
-        <v>1.3698286794608083</v>
+        <f>E37^0.14</f>
+        <v>1.6315183080681859</v>
       </c>
       <c r="F46" s="9">
         <f>F37^G19</f>
         <v>1</v>
       </c>
       <c r="G46" s="9">
-        <f>G37^0.09</f>
-        <v>1.1328838852957985</v>
+        <f>G37^0.14</f>
+        <v>1.214194884395047</v>
       </c>
       <c r="H46" s="9">
-        <f>H37^0.12</f>
-        <v>1.2130435711726304</v>
+        <f>H37^0.18</f>
+        <v>1.3360250490640651</v>
       </c>
       <c r="I46" s="9">
-        <f>I37^0.06</f>
-        <v>1.086734862526058</v>
+        <f>I37^0.23</f>
+        <v>1.3755418181397439</v>
       </c>
       <c r="J46" s="9">
-        <f>J37^0.15</f>
-        <v>1.1791476456813665</v>
+        <f>J37^0.14</f>
+        <v>1.1662642834242571</v>
       </c>
       <c r="K46" s="9">
-        <f>K37^0.06</f>
-        <v>1.0424657608411214</v>
-      </c>
-      <c r="L46" s="9">
-        <f>L37^0.09</f>
-        <v>1.1328838852957985</v>
-      </c>
-      <c r="M46" s="9">
-        <f>M37^0.06</f>
-        <v>1.068137777449498</v>
-      </c>
-      <c r="N46" s="9">
-        <f>N37^0.09</f>
-        <v>1.0643701824533598</v>
-      </c>
-      <c r="O46" s="9">
-        <f>O37^0.03</f>
-        <v>1.0335075120430901</v>
-      </c>
-      <c r="P46" s="9">
-        <f>P37^0.06</f>
-        <v>1.0424657608411214</v>
-      </c>
-      <c r="Q46" s="9">
-        <f>Q37^0.09</f>
-        <v>1.1039284168910664</v>
-      </c>
+        <f>K37^0.14</f>
+        <v>1.1019051158766107</v>
+      </c>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
     </row>
     <row r="47" spans="4:17">
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E47" s="9">
-        <f>E38^0.09</f>
-        <v>1.2904476852080027</v>
+        <f t="shared" ref="E47:E49" si="2">E38^0.14</f>
+        <v>1.4868352505530413</v>
       </c>
       <c r="F47" s="9">
         <f>F38^G19</f>
         <v>1</v>
       </c>
       <c r="G47" s="9">
-        <f>G38^0.09</f>
+        <f t="shared" ref="G47:G49" si="3">G38^0.14</f>
         <v>1</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" ref="H47:H49" si="2">H38^0.12</f>
-        <v>1.2130435711726304</v>
+        <f t="shared" ref="H47:H49" si="4">H38^0.18</f>
+        <v>1.3360250490640651</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" ref="I47:I49" si="3">I38^0.06</f>
-        <v>1.0424657608411214</v>
+        <f t="shared" ref="I47:I49" si="5">I38^0.23</f>
+        <v>1.1728349492318788</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" ref="J47:J49" si="4">J38^0.15</f>
-        <v>1.1095694720678451</v>
+        <f t="shared" ref="J47:K49" si="6">J38^0.14</f>
+        <v>1.1019051158766107</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" ref="K47:K49" si="5">K38^0.06</f>
-        <v>1.0424657608411214</v>
-      </c>
-      <c r="L47" s="9">
-        <f t="shared" ref="L47:L49" si="6">L38^0.09</f>
-        <v>1.1039284168910664</v>
-      </c>
-      <c r="M47" s="9">
-        <f t="shared" ref="M47:M49" si="7">M38^0.06</f>
-        <v>1</v>
-      </c>
-      <c r="N47" s="9">
-        <f t="shared" ref="N47:N49" si="8">N38^0.09</f>
-        <v>1.1914033683338536</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" ref="O47:O49" si="9">O38^0.03</f>
-        <v>1.055223701805468</v>
-      </c>
-      <c r="P47" s="9">
-        <f t="shared" ref="P47:P49" si="10">P38^0.06</f>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="shared" ref="Q47:Q49" si="11">Q38^0.09</f>
-        <v>1.1914033683338536</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>1.1019051158766107</v>
+      </c>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
     </row>
     <row r="48" spans="4:17">
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E48" s="9">
-        <f>E39^0.09</f>
-        <v>1.3771020474505347</v>
+        <f t="shared" si="2"/>
+        <v>1.6450137265807654</v>
       </c>
       <c r="F48" s="9">
         <f>F39^G19</f>
         <v>1</v>
       </c>
       <c r="G48" s="9">
-        <f>G39^0.09</f>
-        <v>1.1558654978257916</v>
+        <f t="shared" si="3"/>
+        <v>1.2527251618255104</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="2"/>
-        <v>1.2398757045261211</v>
+        <f t="shared" si="4"/>
+        <v>1.3805979528116823</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1238436146785018</v>
+        <f t="shared" si="5"/>
+        <v>1.5644891270067232</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="4"/>
-        <v>1.1095694720678451</v>
+        <f t="shared" si="6"/>
+        <v>1.1019051158766107</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="5"/>
-        <v>1.086734862526058</v>
-      </c>
-      <c r="L48" s="9">
         <f t="shared" si="6"/>
-        <v>1.2058078276907604</v>
-      </c>
-      <c r="M48" s="9">
-        <f t="shared" si="7"/>
-        <v>1.1328838852957985</v>
-      </c>
-      <c r="N48" s="9">
-        <f t="shared" si="8"/>
-        <v>1.2186579496196162</v>
-      </c>
-      <c r="O48" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P48" s="9">
-        <f t="shared" si="10"/>
-        <v>1.1134970608520351</v>
-      </c>
-      <c r="Q48" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1914033683338536</v>
-      </c>
+        <v>1.214194884395047</v>
+      </c>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
     </row>
     <row r="49" spans="4:17">
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E49" s="9">
-        <f>E40^0.09</f>
-        <v>1.3840065808560691</v>
+        <f t="shared" si="2"/>
+        <v>1.6578614816392641</v>
       </c>
       <c r="F49" s="9">
         <f>F40^G19</f>
         <v>1</v>
       </c>
       <c r="G49" s="9">
-        <f>G40^0.09</f>
-        <v>1.1914033683338536</v>
+        <f t="shared" si="3"/>
+        <v>1.3131481483006215</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="2"/>
-        <v>1.2630244702536411</v>
+        <f t="shared" si="4"/>
+        <v>1.4194419860772518</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1238436146785018</v>
+        <f t="shared" si="5"/>
+        <v>1.5644891270067232</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="4"/>
-        <v>1.3389510680084606</v>
+        <f t="shared" si="6"/>
+        <v>1.3131481483006215</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="5"/>
-        <v>1.1238436146785018</v>
-      </c>
-      <c r="L49" s="9">
         <f t="shared" si="6"/>
-        <v>1.2058078276907604</v>
-      </c>
-      <c r="M49" s="9">
-        <f t="shared" si="7"/>
-        <v>1.086734862526058</v>
-      </c>
-      <c r="N49" s="9">
-        <f t="shared" si="8"/>
-        <v>1.1039284168910664</v>
-      </c>
-      <c r="O49" s="9">
-        <f t="shared" si="9"/>
-        <v>1.0424657608411214</v>
-      </c>
-      <c r="P49" s="9">
-        <f t="shared" si="10"/>
-        <v>1.1134970608520351</v>
-      </c>
-      <c r="Q49" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1914033683338536</v>
-      </c>
+        <v>1.3131481483006215</v>
+      </c>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="4:17">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="4:17">
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
     </row>
     <row r="52" spans="4:17">
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="O52" s="10" t="s">
+      <c r="O52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="11" t="s">
+      <c r="P52" s="14"/>
+      <c r="Q52" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="4:17">
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="O53" s="14" t="s">
+      <c r="O53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P53" s="14" t="s">
+      <c r="P53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" s="12"/>
+      <c r="Q53" s="16"/>
     </row>
     <row r="54" spans="4:17">
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="13"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="17"/>
     </row>
     <row r="55" spans="4:17">
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="N55">
-        <v>1</v>
+      <c r="N55" t="s">
+        <v>62</v>
       </c>
       <c r="O55" s="6">
-        <f>E46*F46*G46*H46*I46*J46*K46*L46*M46*N46*O46*P46*Q46</f>
-        <v>3.8521515635234378</v>
+        <f>E46*F46*G46*H46*I46*J46*K46</f>
+        <v>4.6785354463960758</v>
       </c>
       <c r="P55" s="7">
         <f>O55/O59</f>
-        <v>0.19332695223357704</v>
-      </c>
-      <c r="Q55" s="15">
+        <v>0.21462178186259101</v>
+      </c>
+      <c r="Q55" s="18">
         <f>MAX(P55:P58)</f>
-        <v>0.35361164794916272</v>
+        <v>0.38242254430343853</v>
       </c>
     </row>
     <row r="56" spans="4:17">
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="N56">
-        <v>2</v>
+      <c r="N56" t="s">
+        <v>63</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" ref="O56:O58" si="12">E47*F47*G47*H47*I47*J47*K47*L47*M47*N47*O47*P47*Q47</f>
-        <v>3.1210304074475959</v>
+        <f>E47*F47*G47*H47*I47*J47*K47</f>
+        <v>2.8288032843246826</v>
       </c>
       <c r="P56" s="7">
         <f>O56/O59</f>
-        <v>0.15663436044771598</v>
-      </c>
-      <c r="Q56" s="16"/>
+        <v>0.12976770367064036</v>
+      </c>
+      <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="4:17">
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="N57">
-        <v>3</v>
+      <c r="N57" t="s">
+        <v>66</v>
       </c>
       <c r="O57" s="6">
-        <f t="shared" si="12"/>
-        <v>5.9064805501014463</v>
+        <f>E48*F48*G48*H48*I48*J48*K48</f>
+        <v>5.9552184817682399</v>
       </c>
       <c r="P57" s="7">
         <f>O57/O59</f>
-        <v>0.2964270393695444</v>
-      </c>
-      <c r="Q57" s="16"/>
+        <v>0.27318797016333013</v>
+      </c>
+      <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="4:17">
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="N58">
-        <v>4</v>
+      <c r="N58" t="s">
+        <v>65</v>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="12"/>
-        <v>7.0459170166904723</v>
+        <f>E49*F49*G49*H49*I49*J49*K49</f>
+        <v>8.3364205324234515</v>
       </c>
       <c r="P58" s="7">
         <f>O58/O59</f>
-        <v>0.35361164794916272</v>
-      </c>
-      <c r="Q58" s="17"/>
+        <v>0.38242254430343853</v>
+      </c>
+      <c r="Q58" s="20"/>
     </row>
     <row r="59" spans="4:17">
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
       <c r="O59" s="6">
         <f>SUM(O55:O58)</f>
-        <v>19.92557953776295</v>
+        <v>21.798977744912449</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="4:17">
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-    </row>
-    <row r="61" spans="4:17">
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+  <mergeCells count="18">
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E35:I35"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE11DFE-9F94-4DD8-96C3-0CAD17ED7799}">
+  <dimension ref="D5:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:15">
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="4:15">
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="4:15">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="K13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F30" si="0">(E18/$E$31)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G18" s="11">
+        <f>(F18*G9)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="G19" s="11">
+        <f>(F19*G10)</f>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G20" s="11">
+        <f>(F20*G11)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G21" s="11">
+        <f>(F21*G12)</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <f>(F22*G12)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9">
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="G23" s="12">
+        <f>F23*1</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9">
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" ref="G24:G30" si="1">F24*1</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9">
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <f>F28*1</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9">
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9">
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5">
+        <f>SUM(E18:E30)</f>
+        <v>34</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUM(F18:F30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17">
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17">
+      <c r="D35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="4:17">
+      <c r="D36" s="10"/>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17">
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8">
+        <v>33</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>4</v>
+      </c>
+      <c r="H37" s="8">
+        <v>5</v>
+      </c>
+      <c r="I37" s="8">
+        <v>4</v>
+      </c>
+      <c r="J37" s="8">
+        <v>3</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>4</v>
+      </c>
+      <c r="M37" s="8">
+        <v>3</v>
+      </c>
+      <c r="N37" s="8">
+        <v>2</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3</v>
+      </c>
+      <c r="P37" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17">
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="8">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>5</v>
+      </c>
+      <c r="I38" s="8">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>3</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+      <c r="N38" s="8">
+        <v>7</v>
+      </c>
+      <c r="O38" s="8">
+        <v>6</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17">
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="8">
+        <v>35</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>5</v>
+      </c>
+      <c r="H39" s="8">
+        <v>6</v>
+      </c>
+      <c r="I39" s="8">
+        <v>7</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>4</v>
+      </c>
+      <c r="L39" s="8">
+        <v>8</v>
+      </c>
+      <c r="M39" s="8">
+        <v>8</v>
+      </c>
+      <c r="N39" s="8">
+        <v>9</v>
+      </c>
+      <c r="O39" s="8">
+        <v>1</v>
+      </c>
+      <c r="P39" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17">
+      <c r="D40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="8">
+        <v>37</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>7</v>
+      </c>
+      <c r="H40" s="8">
+        <v>7</v>
+      </c>
+      <c r="I40" s="8">
+        <v>7</v>
+      </c>
+      <c r="J40" s="8">
+        <v>7</v>
+      </c>
+      <c r="K40" s="8">
+        <v>7</v>
+      </c>
+      <c r="L40" s="8">
+        <v>8</v>
+      </c>
+      <c r="M40" s="8">
+        <v>4</v>
+      </c>
+      <c r="N40" s="8">
+        <v>3</v>
+      </c>
+      <c r="O40" s="8">
+        <v>4</v>
+      </c>
+      <c r="P40" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17">
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="4:17">
+      <c r="D44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="4:17">
+      <c r="D45" s="10"/>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17">
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="9">
+        <f>E37^0.09</f>
+        <v>1.3698286794608083</v>
+      </c>
+      <c r="F46" s="9">
+        <f>F37^G19</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <f>G37^0.09</f>
+        <v>1.1328838852957985</v>
+      </c>
+      <c r="H46" s="9">
+        <f>H37^0.12</f>
+        <v>1.2130435711726304</v>
+      </c>
+      <c r="I46" s="9">
+        <f>I37^0.06</f>
+        <v>1.086734862526058</v>
+      </c>
+      <c r="J46" s="9">
+        <f>J37^0.15</f>
+        <v>1.1791476456813665</v>
+      </c>
+      <c r="K46" s="9">
+        <f>K37^0.06</f>
+        <v>1.0424657608411214</v>
+      </c>
+      <c r="L46" s="9">
+        <f>L37^0.09</f>
+        <v>1.1328838852957985</v>
+      </c>
+      <c r="M46" s="9">
+        <f>M37^0.06</f>
+        <v>1.068137777449498</v>
+      </c>
+      <c r="N46" s="9">
+        <f>N37^0.09</f>
+        <v>1.0643701824533598</v>
+      </c>
+      <c r="O46" s="9">
+        <f>O37^0.03</f>
+        <v>1.0335075120430901</v>
+      </c>
+      <c r="P46" s="9">
+        <f>P37^0.06</f>
+        <v>1.0424657608411214</v>
+      </c>
+      <c r="Q46" s="9">
+        <f>Q37^0.09</f>
+        <v>1.1039284168910664</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17">
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="9">
+        <f>E38^0.09</f>
+        <v>1.2904476852080027</v>
+      </c>
+      <c r="F47" s="9">
+        <f>F38^G19</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <f>G38^0.09</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" ref="H47:H49" si="2">H38^0.12</f>
+        <v>1.2130435711726304</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" ref="I47:I49" si="3">I38^0.06</f>
+        <v>1.0424657608411214</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47:J49" si="4">J38^0.15</f>
+        <v>1.1095694720678451</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" ref="K47:K49" si="5">K38^0.06</f>
+        <v>1.0424657608411214</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" ref="L47:L49" si="6">L38^0.09</f>
+        <v>1.1039284168910664</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" ref="M47:M49" si="7">M38^0.06</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" ref="N47:N49" si="8">N38^0.09</f>
+        <v>1.1914033683338536</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" ref="O47:O49" si="9">O38^0.03</f>
+        <v>1.055223701805468</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" ref="P47:P49" si="10">P38^0.06</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" ref="Q47:Q49" si="11">Q38^0.09</f>
+        <v>1.1914033683338536</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17">
+      <c r="D48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="9">
+        <f>E39^0.09</f>
+        <v>1.3771020474505347</v>
+      </c>
+      <c r="F48" s="9">
+        <f>F39^G19</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <f>G39^0.09</f>
+        <v>1.1558654978257916</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2398757045261211</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1238436146785018</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="4"/>
+        <v>1.1095694720678451</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="5"/>
+        <v>1.086734862526058</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2058078276907604</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="7"/>
+        <v>1.1328838852957985</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="8"/>
+        <v>1.2186579496196162</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1134970608520351</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="11"/>
+        <v>1.1914033683338536</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17">
+      <c r="D49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9">
+        <f>E40^0.09</f>
+        <v>1.3840065808560691</v>
+      </c>
+      <c r="F49" s="9">
+        <f>F40^G19</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <f>G40^0.09</f>
+        <v>1.1914033683338536</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2630244702536411</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1238436146785018</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3389510680084606</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="5"/>
+        <v>1.1238436146785018</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2058078276907604</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="7"/>
+        <v>1.086734862526058</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="8"/>
+        <v>1.1039284168910664</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0424657608411214</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1134970608520351</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="11"/>
+        <v>1.1914033683338536</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="52" spans="4:17">
+      <c r="O52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17">
+      <c r="O53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="4:17">
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="17"/>
+    </row>
+    <row r="55" spans="4:17">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <f>E46*F46*G46*H46*I46*J46*K46*L46*M46*N46*O46*P46*Q46</f>
+        <v>3.8521515635234378</v>
+      </c>
+      <c r="P55" s="7">
+        <f>O55/O59</f>
+        <v>0.19332695223357704</v>
+      </c>
+      <c r="Q55" s="18">
+        <f>MAX(P55:P58)</f>
+        <v>0.35361164794916272</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17">
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" ref="O56:O58" si="12">E47*F47*G47*H47*I47*J47*K47*L47*M47*N47*O47*P47*Q47</f>
+        <v>3.1210304074475959</v>
+      </c>
+      <c r="P56" s="7">
+        <f>O56/O59</f>
+        <v>0.15663436044771598</v>
+      </c>
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" spans="4:17">
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="12"/>
+        <v>5.9064805501014463</v>
+      </c>
+      <c r="P57" s="7">
+        <f>O57/O59</f>
+        <v>0.2964270393695444</v>
+      </c>
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="4:17">
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="12"/>
+        <v>7.0459170166904723</v>
+      </c>
+      <c r="P58" s="7">
+        <f>O58/O59</f>
+        <v>0.35361164794916272</v>
+      </c>
+      <c r="Q58" s="20"/>
+    </row>
+    <row r="59" spans="4:17">
+      <c r="O59" s="6">
+        <f>SUM(O55:O58)</f>
+        <v>19.92557953776295</v>
+      </c>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Perhitungan.xlsx
+++ b/Perhitungan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95499214ec9b6c66/Documents/TUGAS ONGOING/SMS 4/PRAK SCPK/ProjectAkhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413FEE11-381B-4606-97E9-C7DB258F077C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{7A107D86-1ADB-4DB3-ADFA-C3E920490094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3422FE6-58B8-4BE7-B92A-9A2F7D17E588}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>Menentukan Kriteria dan Bobot</t>
   </si>
@@ -221,7 +221,16 @@
     <t>to</t>
   </si>
   <si>
-    <t>Plut</t>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Pharsa</t>
+  </si>
+  <si>
+    <t>Anto</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,17 +400,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +415,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,11 +427,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,6 +462,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -717,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:Q59"/>
+  <dimension ref="D7:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -741,62 +751,24 @@
     <col min="18" max="20" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:15">
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="4:15">
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="4:15">
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="4:15">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="4:15">
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="4:15">
+    </row>
+    <row r="9" spans="4:8">
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,15 +781,9 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="4:15">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="4:8">
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
@@ -830,15 +796,9 @@
       <c r="G10" s="2">
         <v>-1</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="4:15">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="4:8">
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
@@ -851,15 +811,9 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="4:15">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="4:8">
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
@@ -872,15 +826,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="4:15">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="4:8">
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
@@ -893,15 +841,9 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="4:15">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="4:8">
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
@@ -914,15 +856,9 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="4:15">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="4:8">
       <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
@@ -935,27 +871,15 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="4:15">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="4:8">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="4:17">
+    </row>
+    <row r="17" spans="4:9">
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
@@ -965,18 +889,12 @@
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="4:17">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="4:9">
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
@@ -987,22 +905,16 @@
         <f t="shared" ref="F18:F24" si="0">(E18/$E$31)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="19">
         <f>(F18*G9)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="19"/>
       <c r="I18" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="4:17">
+    </row>
+    <row r="19" spans="4:9">
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1013,22 +925,16 @@
         <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="19">
         <f>(F19*G10)</f>
         <v>-4.5454545454545456E-2</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="19"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-    </row>
-    <row r="20" spans="4:17">
+    </row>
+    <row r="20" spans="4:9">
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1039,16 +945,16 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="19">
         <f>(F20*G11)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="19"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="4:17">
+    <row r="21" spans="4:9">
       <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1059,16 +965,16 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="19">
         <f>(F21*G12)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="19"/>
       <c r="I21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="4:17">
+    <row r="22" spans="4:9">
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1079,16 +985,16 @@
         <f t="shared" si="0"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="19">
         <f>(F22*G12)</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="19"/>
       <c r="I22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:17">
+    <row r="23" spans="4:9">
       <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
@@ -1099,16 +1005,16 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="20">
         <f>F23*1</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="21"/>
       <c r="I23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="4:17">
+    <row r="24" spans="4:9">
       <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1119,16 +1025,16 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="20">
         <f t="shared" ref="G24" si="1">F24*1</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="21"/>
       <c r="I24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="4:17">
+    <row r="25" spans="4:9">
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:17">
+    <row r="31" spans="4:9">
       <c r="D31" s="4"/>
       <c r="E31" s="5">
         <f>SUM(E18:E24)</f>
@@ -1152,53 +1058,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:17">
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" spans="4:17">
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="4:17">
+    <row r="34" spans="4:11">
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="4:17">
-      <c r="D35" s="10" t="s">
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-    </row>
-    <row r="36" spans="4:17">
-      <c r="D36" s="10"/>
+      <c r="E35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="15"/>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1220,16 +1098,10 @@
       <c r="K36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" spans="4:17">
+    </row>
+    <row r="37" spans="4:11">
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E37" s="8">
         <v>33</v>
@@ -1252,16 +1124,10 @@
       <c r="K37" s="8">
         <v>2</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="4:17">
+    </row>
+    <row r="38" spans="4:11">
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E38" s="8">
         <v>17</v>
@@ -1284,16 +1150,10 @@
       <c r="K38" s="8">
         <v>2</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="4:17">
+    </row>
+    <row r="39" spans="4:11">
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E39" s="8">
         <v>35</v>
@@ -1316,16 +1176,10 @@
       <c r="K39" s="8">
         <v>4</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="4:17">
+    </row>
+    <row r="40" spans="4:11">
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E40" s="8">
         <v>37</v>
@@ -1348,61 +1202,27 @@
       <c r="K40" s="8">
         <v>7</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="4:17">
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="42" spans="4:17">
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-    </row>
-    <row r="43" spans="4:17">
+    </row>
+    <row r="43" spans="4:11">
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-    </row>
-    <row r="44" spans="4:17">
-      <c r="D44" s="10" t="s">
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-    </row>
-    <row r="45" spans="4:17">
-      <c r="D45" s="10"/>
+      <c r="E44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="4:11">
+      <c r="D45" s="15"/>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1424,14 +1244,8 @@
       <c r="K45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-    </row>
-    <row r="46" spans="4:17">
+    </row>
+    <row r="46" spans="4:11">
       <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
@@ -1463,14 +1277,8 @@
         <f>K37^0.14</f>
         <v>1.1019051158766107</v>
       </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-    </row>
-    <row r="47" spans="4:17">
+    </row>
+    <row r="47" spans="4:11">
       <c r="D47" s="2" t="s">
         <v>63</v>
       </c>
@@ -1502,14 +1310,8 @@
         <f t="shared" si="6"/>
         <v>1.1019051158766107</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-    </row>
-    <row r="48" spans="4:17">
+    </row>
+    <row r="48" spans="4:11">
       <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
@@ -1541,12 +1343,6 @@
         <f t="shared" si="6"/>
         <v>1.214194884395047</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
     </row>
     <row r="49" spans="4:17">
       <c r="D49" s="2" t="s">
@@ -1580,49 +1376,37 @@
         <f t="shared" si="6"/>
         <v>1.3131481483006215</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="4:17">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
     </row>
     <row r="52" spans="4:17">
-      <c r="O52" s="14" t="s">
+      <c r="O52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="15" t="s">
+      <c r="P52" s="11"/>
+      <c r="Q52" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="4:17">
-      <c r="O53" s="10" t="s">
+      <c r="O53" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P53" s="10" t="s">
+      <c r="P53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" s="16"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="4:17">
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="17"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="4:17">
-      <c r="N55" t="s">
-        <v>62</v>
+      <c r="N55" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="O55" s="6">
         <f>E46*F46*G46*H46*I46*J46*K46</f>
@@ -1632,14 +1416,14 @@
         <f>O55/O59</f>
         <v>0.21462178186259101</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="16">
         <f>MAX(P55:P58)</f>
         <v>0.38242254430343853</v>
       </c>
     </row>
     <row r="56" spans="4:17">
-      <c r="N56" t="s">
-        <v>63</v>
+      <c r="N56" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="O56" s="6">
         <f>E47*F47*G47*H47*I47*J47*K47</f>
@@ -1649,11 +1433,11 @@
         <f>O56/O59</f>
         <v>0.12976770367064036</v>
       </c>
-      <c r="Q56" s="19"/>
+      <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="4:17">
-      <c r="N57" t="s">
-        <v>66</v>
+      <c r="N57" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="O57" s="6">
         <f>E48*F48*G48*H48*I48*J48*K48</f>
@@ -1663,11 +1447,11 @@
         <f>O57/O59</f>
         <v>0.27318797016333013</v>
       </c>
-      <c r="Q57" s="19"/>
+      <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="4:17">
-      <c r="N58" t="s">
-        <v>65</v>
+      <c r="N58" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="O58" s="6">
         <f>E49*F49*G49*H49*I49*J49*K49</f>
@@ -1677,7 +1461,7 @@
         <f>O58/O59</f>
         <v>0.38242254430343853</v>
       </c>
-      <c r="Q58" s="20"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="4:17">
       <c r="O59" s="6">
@@ -1689,24 +1473,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1781,10 +1565,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="4:15">
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1962,10 +1746,10 @@
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" s="3" t="s">
@@ -1978,11 +1762,11 @@
         <f t="shared" ref="F18:F30" si="0">(E18/$E$31)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="19">
         <f>(F18*G9)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="19"/>
       <c r="I18" t="s">
         <v>4</v>
       </c>
@@ -1998,11 +1782,11 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="19">
         <f>(F19*G10)</f>
         <v>-2.9411764705882353E-2</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="19"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
@@ -2018,11 +1802,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="19">
         <f>(F20*G11)</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="19"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
@@ -2038,11 +1822,11 @@
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="19">
         <f>(F21*G12)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="19"/>
       <c r="I21" t="s">
         <v>8</v>
       </c>
@@ -2058,11 +1842,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="19">
         <f>(F22*G12)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="19"/>
       <c r="I22" t="s">
         <v>10</v>
       </c>
@@ -2078,11 +1862,11 @@
         <f t="shared" si="0"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="20">
         <f>F23*1</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="21"/>
       <c r="I23" t="s">
         <v>32</v>
       </c>
@@ -2098,11 +1882,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="20">
         <f t="shared" ref="G24:G30" si="1">F24*1</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="21"/>
       <c r="I24" t="s">
         <v>33</v>
       </c>
@@ -2118,11 +1902,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="20">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="21"/>
       <c r="I25" t="s">
         <v>34</v>
       </c>
@@ -2138,11 +1922,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="20">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="21"/>
       <c r="I26" t="s">
         <v>35</v>
       </c>
@@ -2158,11 +1942,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="20">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="21"/>
       <c r="I27" t="s">
         <v>36</v>
       </c>
@@ -2178,11 +1962,11 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="20">
         <f>F28*1</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="21"/>
       <c r="I28" t="s">
         <v>37</v>
       </c>
@@ -2198,11 +1982,11 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="20">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="21"/>
       <c r="I29" t="s">
         <v>38</v>
       </c>
@@ -2218,11 +2002,11 @@
         <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="20">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="21"/>
       <c r="I30" t="s">
         <v>39</v>
       </c>
@@ -2246,19 +2030,19 @@
       </c>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="E35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="10"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2482,19 +2266,19 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="4:17">
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="E44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="4:17">
-      <c r="D45" s="10"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
@@ -2768,27 +2552,27 @@
       <c r="E50" s="1"/>
     </row>
     <row r="52" spans="4:17">
-      <c r="O52" s="14" t="s">
+      <c r="O52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="15" t="s">
+      <c r="P52" s="11"/>
+      <c r="Q52" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="4:17">
-      <c r="O53" s="10" t="s">
+      <c r="O53" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P53" s="10" t="s">
+      <c r="P53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" s="16"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="4:17">
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="17"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="4:17">
       <c r="N55">
@@ -2802,7 +2586,7 @@
         <f>O55/O59</f>
         <v>0.19332695223357704</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="16">
         <f>MAX(P55:P58)</f>
         <v>0.35361164794916272</v>
       </c>
@@ -2819,7 +2603,7 @@
         <f>O56/O59</f>
         <v>0.15663436044771598</v>
       </c>
-      <c r="Q56" s="19"/>
+      <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="4:17">
       <c r="N57">
@@ -2833,7 +2617,7 @@
         <f>O57/O59</f>
         <v>0.2964270393695444</v>
       </c>
-      <c r="Q57" s="19"/>
+      <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="4:17">
       <c r="N58">
@@ -2847,7 +2631,7 @@
         <f>O58/O59</f>
         <v>0.35361164794916272</v>
       </c>
-      <c r="Q58" s="20"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="4:17">
       <c r="O59" s="6">
@@ -2859,16 +2643,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="G22:H22"/>
@@ -2877,12 +2657,16 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q55:Q58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
